--- a/template/biODYM_input_data_template.xlsx
+++ b/template/biODYM_input_data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9FDE6B-905D-1140-9CB0-9A8796D24527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C2346-1CDF-6F4E-AB39-44A725A9AD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="3" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="4" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -219,17 +219,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>694810</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27912</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237253</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68960969-46A5-C2D1-3C96-B905959EAA2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C586DAC-B245-DDE2-7D4A-F96A39074883}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,7 +246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11399096" cy="6098791"/>
+          <a:ext cx="12588352" cy="6742674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3060,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352E2FD3-2C87-D345-A16D-43280B164616}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3362,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5569,7 +5569,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/template/biODYM_input_data_template.xlsx
+++ b/template/biODYM_input_data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C2346-1CDF-6F4E-AB39-44A725A9AD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFB481-A064-A94A-85FD-2D18CFFC20EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="4" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="-20260" yWindow="500" windowWidth="20240" windowHeight="21100" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -220,16 +220,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>237253</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>43773</xdr:rowOff>
+      <xdr:colOff>43017</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C586DAC-B245-DDE2-7D4A-F96A39074883}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF35B9A-F2A4-D649-BC4A-1C751104BAE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,7 +246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12588352" cy="6742674"/>
+          <a:ext cx="12394116" cy="6638636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3362,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/template/biODYM_input_data_template.xlsx
+++ b/template/biODYM_input_data_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFB481-A064-A94A-85FD-2D18CFFC20EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCE659-FFAB-8444-9A6F-C1AC9FAB951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20260" yWindow="500" windowWidth="20240" windowHeight="21100" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
-    <sheet name="Flow_data_Biomass" sheetId="1" r:id="rId2"/>
-    <sheet name="TC_data_Biomass" sheetId="3" r:id="rId3"/>
+    <sheet name="Flow_data_Good" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_data_Good" sheetId="3" r:id="rId3"/>
     <sheet name="Flow_data_Carbon" sheetId="10" r:id="rId4"/>
     <sheet name="TC_data_Carbon" sheetId="11" r:id="rId5"/>
     <sheet name="relSTD_default" sheetId="9" r:id="rId6"/>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,10 +852,2587 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B738330-DCC2-2C4A-8AC7-53B265BB74D4}">
+  <dimension ref="A1:AD22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.83203125" collapsed="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.83203125" collapsed="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.83203125" collapsed="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.83203125" collapsed="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.83203125" collapsed="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.83203125" collapsed="1"/>
+    <col min="15" max="15" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.83203125" collapsed="1"/>
+    <col min="17" max="17" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="10.83203125" collapsed="1"/>
+    <col min="19" max="19" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="10.83203125" collapsed="1"/>
+    <col min="21" max="21" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="8.5" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="10.83203125" collapsed="1"/>
+    <col min="25" max="25" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="10.83203125" collapsed="1"/>
+    <col min="27" max="27" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.83203125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <f>1-D2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N2">
+        <f>1-F2-H2-J2-L2</f>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R2">
+        <v>0.7</v>
+      </c>
+      <c r="S2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T2">
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V2">
+        <f>1-R2-T2</f>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">1-D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N22" si="1">1-F3-H3-J3-L3</f>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>0.7</v>
+      </c>
+      <c r="S3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T3">
+        <v>0.15</v>
+      </c>
+      <c r="U3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V22" si="2">1-R3-T3</f>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R4">
+        <v>0.7</v>
+      </c>
+      <c r="S4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T4">
+        <v>0.15</v>
+      </c>
+      <c r="U4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L5">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R5">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T5">
+        <v>0.15</v>
+      </c>
+      <c r="U5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R6">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T6">
+        <v>0.15</v>
+      </c>
+      <c r="U6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R7">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T7">
+        <v>0.15</v>
+      </c>
+      <c r="U7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R8">
+        <v>0.7</v>
+      </c>
+      <c r="S8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T8">
+        <v>0.15</v>
+      </c>
+      <c r="U8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2027</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R9">
+        <v>0.7</v>
+      </c>
+      <c r="S9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T9">
+        <v>0.15</v>
+      </c>
+      <c r="U9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2028</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R10">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T10">
+        <v>0.15</v>
+      </c>
+      <c r="U10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2029</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R11">
+        <v>0.7</v>
+      </c>
+      <c r="S11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T11">
+        <v>0.15</v>
+      </c>
+      <c r="U11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R12">
+        <v>0.7</v>
+      </c>
+      <c r="S12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T12">
+        <v>0.15</v>
+      </c>
+      <c r="U12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R13">
+        <v>0.7</v>
+      </c>
+      <c r="S13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T13">
+        <v>0.15</v>
+      </c>
+      <c r="U13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R14">
+        <v>0.7</v>
+      </c>
+      <c r="S14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T14">
+        <v>0.15</v>
+      </c>
+      <c r="U14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2033</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L15">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R15">
+        <v>0.7</v>
+      </c>
+      <c r="S15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T15">
+        <v>0.15</v>
+      </c>
+      <c r="U15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2034</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R16">
+        <v>0.7</v>
+      </c>
+      <c r="S16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T16">
+        <v>0.15</v>
+      </c>
+      <c r="U16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L17">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T17">
+        <v>0.15</v>
+      </c>
+      <c r="U17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R18">
+        <v>0.7</v>
+      </c>
+      <c r="S18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T18">
+        <v>0.15</v>
+      </c>
+      <c r="U18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L19">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T19">
+        <v>0.15</v>
+      </c>
+      <c r="U19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R20">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T20">
+        <v>0.15</v>
+      </c>
+      <c r="U20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R21">
+        <v>0.7</v>
+      </c>
+      <c r="S21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T21">
+        <v>0.15</v>
+      </c>
+      <c r="U21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H22">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L22">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R22">
+        <v>0.7</v>
+      </c>
+      <c r="S22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T22">
+        <v>0.15</v>
+      </c>
+      <c r="U22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="AD22">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N2" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352E2FD3-2C87-D345-A16D-43280B164616}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <f>Flow_data_Good!B2*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <f>Flow_data_Good!B3*0.5</f>
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <f>Flow_data_Good!B4*0.5</f>
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <f>Flow_data_Good!B5*0.5</f>
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <f>Flow_data_Good!B6*0.5</f>
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7">
+        <f>Flow_data_Good!B7*0.5</f>
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8">
+        <f>Flow_data_Good!B8*0.5</f>
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2027</v>
+      </c>
+      <c r="B9">
+        <f>Flow_data_Good!B9*0.5</f>
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2028</v>
+      </c>
+      <c r="B10">
+        <f>Flow_data_Good!B10*0.5</f>
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2029</v>
+      </c>
+      <c r="B11">
+        <f>Flow_data_Good!B11*0.5</f>
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12">
+        <f>Flow_data_Good!B12*0.5</f>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13">
+        <f>Flow_data_Good!B13*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14">
+        <f>Flow_data_Good!B14*0.5</f>
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2033</v>
+      </c>
+      <c r="B15">
+        <f>Flow_data_Good!B15*0.5</f>
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2034</v>
+      </c>
+      <c r="B16">
+        <f>Flow_data_Good!B16*0.5</f>
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17">
+        <f>Flow_data_Good!B17*0.5</f>
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18">
+        <f>Flow_data_Good!B18*0.5</f>
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19">
+        <f>Flow_data_Good!B19*0.5</f>
+        <v>135</v>
+      </c>
+      <c r="C19">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20">
+        <f>Flow_data_Good!B20*0.5</f>
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21">
+        <f>Flow_data_Good!B21*0.5</f>
+        <v>145</v>
+      </c>
+      <c r="C21">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22">
+        <f>Flow_data_Good!B22*0.5</f>
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="Z22" sqref="A1:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3056,2514 +5633,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352E2FD3-2C87-D345-A16D-43280B164616}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <f>Flow_data_Biomass!B2*0.5</f>
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <f>Flow_data_Biomass!B3*0.5</f>
-        <v>55</v>
-      </c>
-      <c r="C3">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <f>Flow_data_Biomass!B4*0.5</f>
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5">
-        <f>Flow_data_Biomass!B5*0.5</f>
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <f>Flow_data_Biomass!B6*0.5</f>
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <f>Flow_data_Biomass!B7*0.5</f>
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2026</v>
-      </c>
-      <c r="B8">
-        <f>Flow_data_Biomass!B8*0.5</f>
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2027</v>
-      </c>
-      <c r="B9">
-        <f>Flow_data_Biomass!B9*0.5</f>
-        <v>85</v>
-      </c>
-      <c r="C9">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2028</v>
-      </c>
-      <c r="B10">
-        <f>Flow_data_Biomass!B10*0.5</f>
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2029</v>
-      </c>
-      <c r="B11">
-        <f>Flow_data_Biomass!B11*0.5</f>
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2030</v>
-      </c>
-      <c r="B12">
-        <f>Flow_data_Biomass!B12*0.5</f>
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2031</v>
-      </c>
-      <c r="B13">
-        <f>Flow_data_Biomass!B13*0.5</f>
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2032</v>
-      </c>
-      <c r="B14">
-        <f>Flow_data_Biomass!B14*0.5</f>
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2033</v>
-      </c>
-      <c r="B15">
-        <f>Flow_data_Biomass!B15*0.5</f>
-        <v>115</v>
-      </c>
-      <c r="C15">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2034</v>
-      </c>
-      <c r="B16">
-        <f>Flow_data_Biomass!B16*0.5</f>
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2035</v>
-      </c>
-      <c r="B17">
-        <f>Flow_data_Biomass!B17*0.5</f>
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2036</v>
-      </c>
-      <c r="B18">
-        <f>Flow_data_Biomass!B18*0.5</f>
-        <v>130</v>
-      </c>
-      <c r="C18">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2037</v>
-      </c>
-      <c r="B19">
-        <f>Flow_data_Biomass!B19*0.5</f>
-        <v>135</v>
-      </c>
-      <c r="C19">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2038</v>
-      </c>
-      <c r="B20">
-        <f>Flow_data_Biomass!B20*0.5</f>
-        <v>140</v>
-      </c>
-      <c r="C20">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2039</v>
-      </c>
-      <c r="B21">
-        <f>Flow_data_Biomass!B21*0.5</f>
-        <v>145</v>
-      </c>
-      <c r="C21">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2040</v>
-      </c>
-      <c r="B22">
-        <f>Flow_data_Biomass!B22*0.5</f>
-        <v>150</v>
-      </c>
-      <c r="C22">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
-  <dimension ref="A1:AB22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.83203125" collapsed="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.83203125" collapsed="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.83203125" collapsed="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.83203125" collapsed="1"/>
-    <col min="11" max="11" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.83203125" collapsed="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="10.83203125" collapsed="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.83203125" collapsed="1"/>
-    <col min="17" max="17" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="10.83203125" collapsed="1"/>
-    <col min="19" max="19" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="10.83203125" collapsed="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="10.83203125" collapsed="1"/>
-    <col min="25" max="25" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="10.83203125" collapsed="1"/>
-    <col min="27" max="27" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.83203125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <f>1-D2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L2">
-        <v>0.2</v>
-      </c>
-      <c r="M2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N2">
-        <f>1-(SUM(F2,H2,J2,L2))</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R2">
-        <v>0.7</v>
-      </c>
-      <c r="S2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T2">
-        <v>0.15</v>
-      </c>
-      <c r="U2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V2">
-        <f>1-R2-T2</f>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">1-D3</f>
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H3">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L3">
-        <v>0.2</v>
-      </c>
-      <c r="M3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N22" si="1">1-(SUM(F3,H3,J3,L3))</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R3">
-        <v>0.7</v>
-      </c>
-      <c r="S3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T3">
-        <v>0.15</v>
-      </c>
-      <c r="U3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V22" si="2">1-R3-T3</f>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H4">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L4">
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R4">
-        <v>0.7</v>
-      </c>
-      <c r="S4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T4">
-        <v>0.15</v>
-      </c>
-      <c r="U4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F5">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H5">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L5">
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R5">
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T5">
-        <v>0.15</v>
-      </c>
-      <c r="U5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H6">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J6">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L6">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R6">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T6">
-        <v>0.15</v>
-      </c>
-      <c r="U6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H7">
-        <v>0.3</v>
-      </c>
-      <c r="I7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R7">
-        <v>0.7</v>
-      </c>
-      <c r="S7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T7">
-        <v>0.15</v>
-      </c>
-      <c r="U7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2026</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L8">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R8">
-        <v>0.7</v>
-      </c>
-      <c r="S8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T8">
-        <v>0.15</v>
-      </c>
-      <c r="U8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2027</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L9">
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R9">
-        <v>0.7</v>
-      </c>
-      <c r="S9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T9">
-        <v>0.15</v>
-      </c>
-      <c r="U9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2028</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H10">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L10">
-        <v>0.2</v>
-      </c>
-      <c r="M10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R10">
-        <v>0.7</v>
-      </c>
-      <c r="S10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T10">
-        <v>0.15</v>
-      </c>
-      <c r="U10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2029</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H11">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J11">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L11">
-        <v>0.2</v>
-      </c>
-      <c r="M11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R11">
-        <v>0.7</v>
-      </c>
-      <c r="S11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T11">
-        <v>0.15</v>
-      </c>
-      <c r="U11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2030</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D12">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H12">
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J12">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L12">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R12">
-        <v>0.7</v>
-      </c>
-      <c r="S12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T12">
-        <v>0.15</v>
-      </c>
-      <c r="U12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2031</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H13">
-        <v>0.3</v>
-      </c>
-      <c r="I13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J13">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L13">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R13">
-        <v>0.7</v>
-      </c>
-      <c r="S13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T13">
-        <v>0.15</v>
-      </c>
-      <c r="U13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2032</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H14">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L14">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R14">
-        <v>0.7</v>
-      </c>
-      <c r="S14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T14">
-        <v>0.15</v>
-      </c>
-      <c r="U14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2033</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F15">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H15">
-        <v>0.3</v>
-      </c>
-      <c r="I15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J15">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L15">
-        <v>0.2</v>
-      </c>
-      <c r="M15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R15">
-        <v>0.7</v>
-      </c>
-      <c r="S15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T15">
-        <v>0.15</v>
-      </c>
-      <c r="U15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2034</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
-      <c r="I16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L16">
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R16">
-        <v>0.7</v>
-      </c>
-      <c r="S16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T16">
-        <v>0.15</v>
-      </c>
-      <c r="U16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2035</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D17">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H17">
-        <v>0.3</v>
-      </c>
-      <c r="I17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J17">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L17">
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R17">
-        <v>0.7</v>
-      </c>
-      <c r="S17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T17">
-        <v>0.15</v>
-      </c>
-      <c r="U17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2036</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F18">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H18">
-        <v>0.3</v>
-      </c>
-      <c r="I18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J18">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L18">
-        <v>0.2</v>
-      </c>
-      <c r="M18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R18">
-        <v>0.7</v>
-      </c>
-      <c r="S18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T18">
-        <v>0.15</v>
-      </c>
-      <c r="U18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2037</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D19">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F19">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H19">
-        <v>0.3</v>
-      </c>
-      <c r="I19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J19">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L19">
-        <v>0.2</v>
-      </c>
-      <c r="M19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R19">
-        <v>0.7</v>
-      </c>
-      <c r="S19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T19">
-        <v>0.15</v>
-      </c>
-      <c r="U19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2038</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F20">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H20">
-        <v>0.3</v>
-      </c>
-      <c r="I20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J20">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L20">
-        <v>0.2</v>
-      </c>
-      <c r="M20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R20">
-        <v>0.7</v>
-      </c>
-      <c r="S20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T20">
-        <v>0.15</v>
-      </c>
-      <c r="U20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2039</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F21">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H21">
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J21">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L21">
-        <v>0.2</v>
-      </c>
-      <c r="M21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R21">
-        <v>0.7</v>
-      </c>
-      <c r="S21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T21">
-        <v>0.15</v>
-      </c>
-      <c r="U21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2040</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D22">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F22">
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H22">
-        <v>0.3</v>
-      </c>
-      <c r="I22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J22">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L22">
-        <v>0.2</v>
-      </c>
-      <c r="M22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R22">
-        <v>0.7</v>
-      </c>
-      <c r="S22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T22">
-        <v>0.15</v>
-      </c>
-      <c r="U22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AEDF69-0002-EE44-95A2-4CE0B8CDF487}">
   <dimension ref="A1:B2"/>

--- a/template/biODYM_input_data_template.xlsx
+++ b/template/biODYM_input_data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DCE659-FFAB-8444-9A6F-C1AC9FAB951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409659BA-C0A3-3C45-AFB1-2D0A3918FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -219,17 +219,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>43017</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>149076</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390770</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>193702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF35B9A-F2A4-D649-BC4A-1C751104BAE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B8299C-8D48-C3E7-35C0-37202B6D5537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,7 +246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12394116" cy="6638636"/>
+          <a:ext cx="11918462" cy="6892603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B738330-DCC2-2C4A-8AC7-53B265BB74D4}">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1:AD22"/>
     </sheetView>
   </sheetViews>

--- a/template/biODYM_input_data_template.xlsx
+++ b/template/biODYM_input_data_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Desktop/biODYM-modelling-template-main 2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409659BA-C0A3-3C45-AFB1-2D0A3918FD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE5D83-B0ED-CF4D-9A8F-B61D5AA22495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,2587 +852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B738330-DCC2-2C4A-8AC7-53B265BB74D4}">
-  <dimension ref="A1:AD22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.83203125" collapsed="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10.83203125" collapsed="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.83203125" collapsed="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.83203125" collapsed="1"/>
-    <col min="11" max="11" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.83203125" collapsed="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="10.83203125" collapsed="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.83203125" collapsed="1"/>
-    <col min="17" max="17" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="10.83203125" collapsed="1"/>
-    <col min="19" max="19" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="10.83203125" collapsed="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="10.83203125" collapsed="1"/>
-    <col min="25" max="25" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="10.83203125" collapsed="1"/>
-    <col min="27" max="27" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="10.83203125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <f>1-D2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L2">
-        <v>0.2</v>
-      </c>
-      <c r="M2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N2">
-        <f>1-F2-H2-J2-L2</f>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R2">
-        <v>0.7</v>
-      </c>
-      <c r="S2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T2">
-        <v>0.15</v>
-      </c>
-      <c r="U2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V2">
-        <f>1-R2-T2</f>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">1-D3</f>
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H3">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L3">
-        <v>0.2</v>
-      </c>
-      <c r="M3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N22" si="1">1-F3-H3-J3-L3</f>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R3">
-        <v>0.7</v>
-      </c>
-      <c r="S3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T3">
-        <v>0.15</v>
-      </c>
-      <c r="U3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V22" si="2">1-R3-T3</f>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H4">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L4">
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R4">
-        <v>0.7</v>
-      </c>
-      <c r="S4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T4">
-        <v>0.15</v>
-      </c>
-      <c r="U4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F5">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H5">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L5">
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R5">
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T5">
-        <v>0.15</v>
-      </c>
-      <c r="U5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H6">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J6">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L6">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R6">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T6">
-        <v>0.15</v>
-      </c>
-      <c r="U6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H7">
-        <v>0.3</v>
-      </c>
-      <c r="I7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R7">
-        <v>0.7</v>
-      </c>
-      <c r="S7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T7">
-        <v>0.15</v>
-      </c>
-      <c r="U7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2026</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L8">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R8">
-        <v>0.7</v>
-      </c>
-      <c r="S8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T8">
-        <v>0.15</v>
-      </c>
-      <c r="U8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2027</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L9">
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R9">
-        <v>0.7</v>
-      </c>
-      <c r="S9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T9">
-        <v>0.15</v>
-      </c>
-      <c r="U9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2028</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H10">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L10">
-        <v>0.2</v>
-      </c>
-      <c r="M10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R10">
-        <v>0.7</v>
-      </c>
-      <c r="S10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T10">
-        <v>0.15</v>
-      </c>
-      <c r="U10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2029</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H11">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J11">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L11">
-        <v>0.2</v>
-      </c>
-      <c r="M11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R11">
-        <v>0.7</v>
-      </c>
-      <c r="S11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T11">
-        <v>0.15</v>
-      </c>
-      <c r="U11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2030</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D12">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H12">
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J12">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L12">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R12">
-        <v>0.7</v>
-      </c>
-      <c r="S12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T12">
-        <v>0.15</v>
-      </c>
-      <c r="U12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2031</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H13">
-        <v>0.3</v>
-      </c>
-      <c r="I13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J13">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L13">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R13">
-        <v>0.7</v>
-      </c>
-      <c r="S13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T13">
-        <v>0.15</v>
-      </c>
-      <c r="U13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2032</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H14">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L14">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R14">
-        <v>0.7</v>
-      </c>
-      <c r="S14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T14">
-        <v>0.15</v>
-      </c>
-      <c r="U14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2033</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F15">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H15">
-        <v>0.3</v>
-      </c>
-      <c r="I15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J15">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L15">
-        <v>0.2</v>
-      </c>
-      <c r="M15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R15">
-        <v>0.7</v>
-      </c>
-      <c r="S15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T15">
-        <v>0.15</v>
-      </c>
-      <c r="U15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2034</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
-      <c r="I16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L16">
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R16">
-        <v>0.7</v>
-      </c>
-      <c r="S16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T16">
-        <v>0.15</v>
-      </c>
-      <c r="U16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2035</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D17">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H17">
-        <v>0.3</v>
-      </c>
-      <c r="I17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J17">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L17">
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R17">
-        <v>0.7</v>
-      </c>
-      <c r="S17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T17">
-        <v>0.15</v>
-      </c>
-      <c r="U17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2036</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F18">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H18">
-        <v>0.3</v>
-      </c>
-      <c r="I18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J18">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L18">
-        <v>0.2</v>
-      </c>
-      <c r="M18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R18">
-        <v>0.7</v>
-      </c>
-      <c r="S18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T18">
-        <v>0.15</v>
-      </c>
-      <c r="U18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2037</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D19">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F19">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H19">
-        <v>0.3</v>
-      </c>
-      <c r="I19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J19">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L19">
-        <v>0.2</v>
-      </c>
-      <c r="M19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R19">
-        <v>0.7</v>
-      </c>
-      <c r="S19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T19">
-        <v>0.15</v>
-      </c>
-      <c r="U19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2038</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F20">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H20">
-        <v>0.3</v>
-      </c>
-      <c r="I20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J20">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L20">
-        <v>0.2</v>
-      </c>
-      <c r="M20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R20">
-        <v>0.7</v>
-      </c>
-      <c r="S20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T20">
-        <v>0.15</v>
-      </c>
-      <c r="U20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2039</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F21">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H21">
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J21">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L21">
-        <v>0.2</v>
-      </c>
-      <c r="M21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R21">
-        <v>0.7</v>
-      </c>
-      <c r="S21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T21">
-        <v>0.15</v>
-      </c>
-      <c r="U21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2040</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D22">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F22">
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="H22">
-        <v>0.3</v>
-      </c>
-      <c r="I22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="J22">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L22">
-        <v>0.2</v>
-      </c>
-      <c r="M22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>9.9999999999999922E-2</v>
-      </c>
-      <c r="O22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="R22">
-        <v>0.7</v>
-      </c>
-      <c r="S22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="T22">
-        <v>0.15</v>
-      </c>
-      <c r="U22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="2"/>
-        <v>0.15000000000000005</v>
-      </c>
-      <c r="W22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="1">
-        <f>relSTD_default!$B$2</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD22">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="N2" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352E2FD3-2C87-D345-A16D-43280B164616}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <f>Flow_data_Good!B2*0.5</f>
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <f>Flow_data_Good!B3*0.5</f>
-        <v>55</v>
-      </c>
-      <c r="C3">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <f>Flow_data_Good!B4*0.5</f>
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5">
-        <f>Flow_data_Good!B5*0.5</f>
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <f>Flow_data_Good!B6*0.5</f>
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <f>Flow_data_Good!B7*0.5</f>
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2026</v>
-      </c>
-      <c r="B8">
-        <f>Flow_data_Good!B8*0.5</f>
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2027</v>
-      </c>
-      <c r="B9">
-        <f>Flow_data_Good!B9*0.5</f>
-        <v>85</v>
-      </c>
-      <c r="C9">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2028</v>
-      </c>
-      <c r="B10">
-        <f>Flow_data_Good!B10*0.5</f>
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2029</v>
-      </c>
-      <c r="B11">
-        <f>Flow_data_Good!B11*0.5</f>
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2030</v>
-      </c>
-      <c r="B12">
-        <f>Flow_data_Good!B12*0.5</f>
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2031</v>
-      </c>
-      <c r="B13">
-        <f>Flow_data_Good!B13*0.5</f>
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2032</v>
-      </c>
-      <c r="B14">
-        <f>Flow_data_Good!B14*0.5</f>
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2033</v>
-      </c>
-      <c r="B15">
-        <f>Flow_data_Good!B15*0.5</f>
-        <v>115</v>
-      </c>
-      <c r="C15">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2034</v>
-      </c>
-      <c r="B16">
-        <f>Flow_data_Good!B16*0.5</f>
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2035</v>
-      </c>
-      <c r="B17">
-        <f>Flow_data_Good!B17*0.5</f>
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2036</v>
-      </c>
-      <c r="B18">
-        <f>Flow_data_Good!B18*0.5</f>
-        <v>130</v>
-      </c>
-      <c r="C18">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2037</v>
-      </c>
-      <c r="B19">
-        <f>Flow_data_Good!B19*0.5</f>
-        <v>135</v>
-      </c>
-      <c r="C19">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2038</v>
-      </c>
-      <c r="B20">
-        <f>Flow_data_Good!B20*0.5</f>
-        <v>140</v>
-      </c>
-      <c r="C20">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2039</v>
-      </c>
-      <c r="B21">
-        <f>Flow_data_Good!B21*0.5</f>
-        <v>145</v>
-      </c>
-      <c r="C21">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2040</v>
-      </c>
-      <c r="B22">
-        <f>Flow_data_Good!B22*0.5</f>
-        <v>150</v>
-      </c>
-      <c r="C22">
-        <f>relSTD_default!$B$1</f>
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z22" sqref="A1:Z22"/>
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3597,6 +1020,2517 @@
         <v>0.05</v>
       </c>
       <c r="N2">
+        <f>1-F2-H2-J2-L2</f>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R2">
+        <v>0.7</v>
+      </c>
+      <c r="S2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T2">
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V2">
+        <f>1-R2-T2</f>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">1-D3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N22" si="1">1-F3-H3-J3-L3</f>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>0.7</v>
+      </c>
+      <c r="S3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T3">
+        <v>0.15</v>
+      </c>
+      <c r="U3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V22" si="2">1-R3-T3</f>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R4">
+        <v>0.7</v>
+      </c>
+      <c r="S4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T4">
+        <v>0.15</v>
+      </c>
+      <c r="U4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L5">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R5">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T5">
+        <v>0.15</v>
+      </c>
+      <c r="U5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R6">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T6">
+        <v>0.15</v>
+      </c>
+      <c r="U6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R7">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T7">
+        <v>0.15</v>
+      </c>
+      <c r="U7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R8">
+        <v>0.7</v>
+      </c>
+      <c r="S8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T8">
+        <v>0.15</v>
+      </c>
+      <c r="U8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2027</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R9">
+        <v>0.7</v>
+      </c>
+      <c r="S9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T9">
+        <v>0.15</v>
+      </c>
+      <c r="U9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2028</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R10">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T10">
+        <v>0.15</v>
+      </c>
+      <c r="U10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2029</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R11">
+        <v>0.7</v>
+      </c>
+      <c r="S11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T11">
+        <v>0.15</v>
+      </c>
+      <c r="U11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R12">
+        <v>0.7</v>
+      </c>
+      <c r="S12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T12">
+        <v>0.15</v>
+      </c>
+      <c r="U12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R13">
+        <v>0.7</v>
+      </c>
+      <c r="S13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T13">
+        <v>0.15</v>
+      </c>
+      <c r="U13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R14">
+        <v>0.7</v>
+      </c>
+      <c r="S14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T14">
+        <v>0.15</v>
+      </c>
+      <c r="U14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2033</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F15">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L15">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R15">
+        <v>0.7</v>
+      </c>
+      <c r="S15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T15">
+        <v>0.15</v>
+      </c>
+      <c r="U15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2034</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H16">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R16">
+        <v>0.7</v>
+      </c>
+      <c r="S16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T16">
+        <v>0.15</v>
+      </c>
+      <c r="U16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H17">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L17">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T17">
+        <v>0.15</v>
+      </c>
+      <c r="U17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L18">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R18">
+        <v>0.7</v>
+      </c>
+      <c r="S18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T18">
+        <v>0.15</v>
+      </c>
+      <c r="U18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L19">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T19">
+        <v>0.15</v>
+      </c>
+      <c r="U19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R20">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T20">
+        <v>0.15</v>
+      </c>
+      <c r="U20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R21">
+        <v>0.7</v>
+      </c>
+      <c r="S21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T21">
+        <v>0.15</v>
+      </c>
+      <c r="U21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H22">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L22">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="R22">
+        <v>0.7</v>
+      </c>
+      <c r="S22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T22">
+        <v>0.15</v>
+      </c>
+      <c r="U22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="W22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N2" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352E2FD3-2C87-D345-A16D-43280B164616}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <f>Flow_data_Good!B2*0.5</f>
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <f>Flow_data_Good!B3*0.5</f>
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <f>Flow_data_Good!B4*0.5</f>
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <f>Flow_data_Good!B5*0.5</f>
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <f>Flow_data_Good!B6*0.5</f>
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7">
+        <f>Flow_data_Good!B7*0.5</f>
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8">
+        <f>Flow_data_Good!B8*0.5</f>
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2027</v>
+      </c>
+      <c r="B9">
+        <f>Flow_data_Good!B9*0.5</f>
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2028</v>
+      </c>
+      <c r="B10">
+        <f>Flow_data_Good!B10*0.5</f>
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2029</v>
+      </c>
+      <c r="B11">
+        <f>Flow_data_Good!B11*0.5</f>
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12">
+        <f>Flow_data_Good!B12*0.5</f>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13">
+        <f>Flow_data_Good!B13*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14">
+        <f>Flow_data_Good!B14*0.5</f>
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2033</v>
+      </c>
+      <c r="B15">
+        <f>Flow_data_Good!B15*0.5</f>
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2034</v>
+      </c>
+      <c r="B16">
+        <f>Flow_data_Good!B16*0.5</f>
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17">
+        <f>Flow_data_Good!B17*0.5</f>
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18">
+        <f>Flow_data_Good!B18*0.5</f>
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19">
+        <f>Flow_data_Good!B19*0.5</f>
+        <v>135</v>
+      </c>
+      <c r="C19">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20">
+        <f>Flow_data_Good!B20*0.5</f>
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21">
+        <f>Flow_data_Good!B21*0.5</f>
+        <v>145</v>
+      </c>
+      <c r="C21">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22">
+        <f>Flow_data_Good!B22*0.5</f>
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <f>relSTD_default!$B$1</f>
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
+  <dimension ref="A1:AB22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.83203125" collapsed="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.83203125" collapsed="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.83203125" collapsed="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.83203125" collapsed="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="10.83203125" collapsed="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.83203125" collapsed="1"/>
+    <col min="15" max="15" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.83203125" collapsed="1"/>
+    <col min="17" max="17" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="10.83203125" collapsed="1"/>
+    <col min="19" max="19" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="10.83203125" collapsed="1"/>
+    <col min="21" max="21" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="8.5" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="10.83203125" collapsed="1"/>
+    <col min="25" max="25" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="10.83203125" collapsed="1"/>
+    <col min="27" max="27" width="10.83203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="10.83203125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <f>1-D2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>relSTD_default!$B$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="N2">
         <f>1-(SUM(F2,H2,J2,L2))</f>
         <v>0.10000000000000009</v>
       </c>
@@ -5638,7 +5572,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/template/biODYM_input_data_template.xlsx
+++ b/template/biODYM_input_data_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/Desktop/biODYM-modelling-template-main 2/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE5D83-B0ED-CF4D-9A8F-B61D5AA22495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7840A8E6-B2E5-D942-A107-477D4662C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
-    <sheet name="Flow_data_Good" sheetId="1" r:id="rId2"/>
-    <sheet name="TC_data_Good" sheetId="3" r:id="rId3"/>
+    <sheet name="Flow_data_Biomass" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_data_Biomass" sheetId="3" r:id="rId3"/>
     <sheet name="Flow_data_Carbon" sheetId="10" r:id="rId4"/>
     <sheet name="TC_data_Carbon" sheetId="11" r:id="rId5"/>
     <sheet name="relSTD_default" sheetId="9" r:id="rId6"/>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B738330-DCC2-2C4A-8AC7-53B265BB74D4}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3088,7 +3088,7 @@
         <v>2020</v>
       </c>
       <c r="B2">
-        <f>Flow_data_Good!B2*0.5</f>
+        <f>Flow_data_Biomass!B2*0.5</f>
         <v>50</v>
       </c>
       <c r="C2">
@@ -3101,7 +3101,7 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <f>Flow_data_Good!B3*0.5</f>
+        <f>Flow_data_Biomass!B3*0.5</f>
         <v>55</v>
       </c>
       <c r="C3">
@@ -3114,7 +3114,7 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <f>Flow_data_Good!B4*0.5</f>
+        <f>Flow_data_Biomass!B4*0.5</f>
         <v>60</v>
       </c>
       <c r="C4">
@@ -3127,7 +3127,7 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <f>Flow_data_Good!B5*0.5</f>
+        <f>Flow_data_Biomass!B5*0.5</f>
         <v>65</v>
       </c>
       <c r="C5">
@@ -3140,7 +3140,7 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <f>Flow_data_Good!B6*0.5</f>
+        <f>Flow_data_Biomass!B6*0.5</f>
         <v>70</v>
       </c>
       <c r="C6">
@@ -3153,7 +3153,7 @@
         <v>2025</v>
       </c>
       <c r="B7">
-        <f>Flow_data_Good!B7*0.5</f>
+        <f>Flow_data_Biomass!B7*0.5</f>
         <v>75</v>
       </c>
       <c r="C7">
@@ -3166,7 +3166,7 @@
         <v>2026</v>
       </c>
       <c r="B8">
-        <f>Flow_data_Good!B8*0.5</f>
+        <f>Flow_data_Biomass!B8*0.5</f>
         <v>80</v>
       </c>
       <c r="C8">
@@ -3179,7 +3179,7 @@
         <v>2027</v>
       </c>
       <c r="B9">
-        <f>Flow_data_Good!B9*0.5</f>
+        <f>Flow_data_Biomass!B9*0.5</f>
         <v>85</v>
       </c>
       <c r="C9">
@@ -3192,7 +3192,7 @@
         <v>2028</v>
       </c>
       <c r="B10">
-        <f>Flow_data_Good!B10*0.5</f>
+        <f>Flow_data_Biomass!B10*0.5</f>
         <v>90</v>
       </c>
       <c r="C10">
@@ -3205,7 +3205,7 @@
         <v>2029</v>
       </c>
       <c r="B11">
-        <f>Flow_data_Good!B11*0.5</f>
+        <f>Flow_data_Biomass!B11*0.5</f>
         <v>95</v>
       </c>
       <c r="C11">
@@ -3218,7 +3218,7 @@
         <v>2030</v>
       </c>
       <c r="B12">
-        <f>Flow_data_Good!B12*0.5</f>
+        <f>Flow_data_Biomass!B12*0.5</f>
         <v>100</v>
       </c>
       <c r="C12">
@@ -3231,7 +3231,7 @@
         <v>2031</v>
       </c>
       <c r="B13">
-        <f>Flow_data_Good!B13*0.5</f>
+        <f>Flow_data_Biomass!B13*0.5</f>
         <v>5</v>
       </c>
       <c r="C13">
@@ -3244,7 +3244,7 @@
         <v>2032</v>
       </c>
       <c r="B14">
-        <f>Flow_data_Good!B14*0.5</f>
+        <f>Flow_data_Biomass!B14*0.5</f>
         <v>110</v>
       </c>
       <c r="C14">
@@ -3257,7 +3257,7 @@
         <v>2033</v>
       </c>
       <c r="B15">
-        <f>Flow_data_Good!B15*0.5</f>
+        <f>Flow_data_Biomass!B15*0.5</f>
         <v>115</v>
       </c>
       <c r="C15">
@@ -3270,7 +3270,7 @@
         <v>2034</v>
       </c>
       <c r="B16">
-        <f>Flow_data_Good!B16*0.5</f>
+        <f>Flow_data_Biomass!B16*0.5</f>
         <v>120</v>
       </c>
       <c r="C16">
@@ -3283,7 +3283,7 @@
         <v>2035</v>
       </c>
       <c r="B17">
-        <f>Flow_data_Good!B17*0.5</f>
+        <f>Flow_data_Biomass!B17*0.5</f>
         <v>125</v>
       </c>
       <c r="C17">
@@ -3296,7 +3296,7 @@
         <v>2036</v>
       </c>
       <c r="B18">
-        <f>Flow_data_Good!B18*0.5</f>
+        <f>Flow_data_Biomass!B18*0.5</f>
         <v>130</v>
       </c>
       <c r="C18">
@@ -3309,7 +3309,7 @@
         <v>2037</v>
       </c>
       <c r="B19">
-        <f>Flow_data_Good!B19*0.5</f>
+        <f>Flow_data_Biomass!B19*0.5</f>
         <v>135</v>
       </c>
       <c r="C19">
@@ -3322,7 +3322,7 @@
         <v>2038</v>
       </c>
       <c r="B20">
-        <f>Flow_data_Good!B20*0.5</f>
+        <f>Flow_data_Biomass!B20*0.5</f>
         <v>140</v>
       </c>
       <c r="C20">
@@ -3335,7 +3335,7 @@
         <v>2039</v>
       </c>
       <c r="B21">
-        <f>Flow_data_Good!B21*0.5</f>
+        <f>Flow_data_Biomass!B21*0.5</f>
         <v>145</v>
       </c>
       <c r="C21">
@@ -3348,7 +3348,7 @@
         <v>2040</v>
       </c>
       <c r="B22">
-        <f>Flow_data_Good!B22*0.5</f>
+        <f>Flow_data_Biomass!B22*0.5</f>
         <v>150</v>
       </c>
       <c r="C22">
